--- a/biology/Zoologie/Carybdea/Carybdea.xlsx
+++ b/biology/Zoologie/Carybdea/Carybdea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carybdea est un genre de cuboméduses de la famille des Carybdeidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'estomac des espèces de ce genre n'est pas suspendu aux mésentères ; l'ouverture du rhopalium est en forme de « T », et ils possèdent trois lèvres.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 mars 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 mars 2021) :
 Carybdea arborifera Maas, 1897
 Carybdea aurifera Mayer, 1900
 Carybdea branchi Gershwin &amp; Gibbons, 2009
